--- a/00_INFOS/ALARM_INFO.xlsx
+++ b/00_INFOS/ALARM_INFO.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sotreq.net\matriz\Publico\Sistemas de Energia\Projetos Maritimo\Cat Connect\5. TES - Projetos\7 - CAT RFV\2 - Marítimo\Oceanpact\00 - INFOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\EquipmentAnalytics - Copia\00_INFOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15AA1BF-BE09-4188-B611-44004EF85A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8A5735-DCEE-4204-9548-2305385089D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="OIL_TTG" sheetId="1" r:id="rId1"/>
+    <sheet name="OIL_ABB" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -351,7 +351,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
